--- a/results/Clusters/21/ClusterDf_21.xlsx
+++ b/results/Clusters/21/ClusterDf_21.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Cluster4" sheetId="5" r:id="rId5"/>
     <sheet name="Cluster5" sheetId="6" r:id="rId6"/>
     <sheet name="Cluster6" sheetId="7" r:id="rId7"/>
+    <sheet name="Cluster7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="81">
   <si>
     <t>clusters</t>
   </si>
@@ -73,130 +74,196 @@
     <t>Topic_15</t>
   </si>
   <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 16.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 19.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 22.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 23.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 20.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 24.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 26.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 27.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 28.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 28.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 30.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 01.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 02.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 03.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 03.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 04.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 17.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 17.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 18.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 19.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 20.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 25.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 14.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 14.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 15.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 15.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 21.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 21.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 26.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 02.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 04.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 16.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 23.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 24.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 25.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 27.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 30.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 10 01.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 18.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 22.xlogafternoon_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 29.xlogmorning_new</t>
-  </si>
-  <si>
-    <t>subtitles\antena3 HD_spa_TXT.st 2019 09 29.xlogafternoon_new</t>
+    <t>Topic_16</t>
+  </si>
+  <si>
+    <t>Topic_17</t>
+  </si>
+  <si>
+    <t>Topic_18</t>
+  </si>
+  <si>
+    <t>Topic_19</t>
+  </si>
+  <si>
+    <t>Topic_20</t>
+  </si>
+  <si>
+    <t>Topic_21</t>
+  </si>
+  <si>
+    <t>Topic_22</t>
+  </si>
+  <si>
+    <t>Topic_23</t>
+  </si>
+  <si>
+    <t>Topic_24</t>
+  </si>
+  <si>
+    <t>Topic_25</t>
+  </si>
+  <si>
+    <t>Topic_26</t>
+  </si>
+  <si>
+    <t>Topic_27</t>
+  </si>
+  <si>
+    <t>Topic_28</t>
+  </si>
+  <si>
+    <t>Topic_29</t>
+  </si>
+  <si>
+    <t>Topic_30</t>
+  </si>
+  <si>
+    <t>Topic_31</t>
+  </si>
+  <si>
+    <t>Topic_32</t>
+  </si>
+  <si>
+    <t>Topic_33</t>
+  </si>
+  <si>
+    <t>Topic_34</t>
+  </si>
+  <si>
+    <t>Topic_35</t>
+  </si>
+  <si>
+    <t>Topic_36</t>
+  </si>
+  <si>
+    <t>Topic_37</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 14_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 14_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 15_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 15_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 16_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 17_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 23_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 24_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 24_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 28_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 28_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 29_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 29_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 30_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 30_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 01_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 02_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 03_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 04_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 21_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 25_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 26_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 26_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 27_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 27_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 01_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 03_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 04_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 18_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 18_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 19_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 20_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 20_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 21_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 22_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 22_afternoon_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 25_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 23_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 10 02_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 19_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 17_morning_new</t>
+  </si>
+  <si>
+    <t>antena3_2019 09 16_morning_new</t>
   </si>
 </sst>
 </file>
@@ -554,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,10 +679,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -645,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -654,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.991</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -668,10 +801,76 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.754</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -689,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -701,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -719,15 +918,81 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.479</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.026</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -745,22 +1010,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.067</v>
+        <v>0.303</v>
       </c>
       <c r="L4">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -772,18 +1037,84 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.473</v>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.677</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -795,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -807,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.405</v>
+        <v>0.466</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -828,12 +1159,78 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.505</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>0</v>
       </c>
     </row>
@@ -844,13 +1241,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,10 +1299,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -917,25 +1380,25 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.406</v>
+        <v>0.58</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -958,10 +1421,76 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.141</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -973,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -985,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1014,10 +1543,76 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1029,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.601</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1041,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.388</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1070,10 +1665,76 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1085,25 +1746,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.651</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.893</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1112,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1126,10 +1787,76 @@
       <c r="R5">
         <v>0</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1141,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1153,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1182,10 +1909,76 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1197,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.491</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1238,10 +2031,76 @@
       <c r="R7">
         <v>0</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0.488</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1253,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1294,10 +2153,76 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1309,25 +2234,25 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1350,10 +2275,76 @@
       <c r="R9">
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.043</v>
+      </c>
+      <c r="W9">
+        <v>0.041</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0.015</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1365,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.652</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1406,10 +2397,76 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.031</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1421,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.634</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1462,10 +2519,76 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1477,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1486,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1518,10 +2641,76 @@
       <c r="R12">
         <v>0</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1533,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.971</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.654</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1569,9 +2758,441 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.152</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.018</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.999</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.661</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.08</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.023</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.234</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>0</v>
       </c>
     </row>
@@ -1582,13 +3203,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,10 +3261,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1661,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="H2">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1673,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.832</v>
+        <v>0.542</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1688,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1696,10 +3383,76 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.048</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1711,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1729,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1752,10 +3505,76 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1773,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1785,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.241</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1808,10 +3627,76 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1823,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1841,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.322</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1864,10 +3749,76 @@
       <c r="R5">
         <v>0</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1885,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1897,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1920,10 +3871,76 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1935,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.645</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1953,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.996</v>
+        <v>0.189</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1974,6 +3991,438 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.029</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.342</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.432</v>
+      </c>
+      <c r="H8">
+        <v>0.099</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.113</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.011</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.987</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.011</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.244</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.224</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.404</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.117</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0</v>
       </c>
     </row>
@@ -1984,13 +4433,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,10 +4491,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2066,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2075,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2098,10 +4613,76 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2122,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2131,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.998</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2154,10 +4735,76 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2178,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.993</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2210,10 +4857,76 @@
       <c r="R4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2225,25 +4938,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H5">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2266,10 +4979,76 @@
       <c r="R5">
         <v>0</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2290,19 +5069,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.643</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.143</v>
+        <v>0.99</v>
       </c>
       <c r="L6">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2322,10 +5101,76 @@
       <c r="R6">
         <v>0</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2337,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2346,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.206</v>
+        <v>0.638</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2376,6 +5221,438 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0.321</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.096</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.012</v>
+      </c>
+      <c r="H8">
+        <v>0.032</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.752</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.012</v>
+      </c>
+      <c r="W8">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0.012</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0.015</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.245</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.024</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.723</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.199</v>
+      </c>
+      <c r="F10">
+        <v>0.029</v>
+      </c>
+      <c r="G10">
+        <v>0.154</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.445</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.172</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0</v>
       </c>
     </row>
@@ -2386,13 +5663,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2444,10 +5721,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2456,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2500,10 +5843,76 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.985</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2512,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2556,60 +5965,70 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.987</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
     </row>
@@ -2620,13 +6039,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,10 +6097,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2702,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2711,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2726,348 +6211,78 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.51</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.029</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.46</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.991</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.346</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.654</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.913</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+        <v>0.988</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
@@ -3078,13 +6293,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,10 +6351,76 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -3169,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.953</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3192,172 +6473,324 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.982</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.982</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.018</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.978</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
     </row>
